--- a/data/final2.xlsx
+++ b/data/final2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\PycharmProjects\Elizabeth_codes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisabethzlatkin/Documents/GitHub/Final Assesment /final_assesment_AB09137/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{654ABD4F-21A5-457D-ABCD-BE3AC54FC4D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{940E17B4-38BD-8F4A-818B-C869F41BCA27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -1737,24 +1737,24 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="129" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="129" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="129" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="129" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="129" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="129" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="129" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" style="129" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" style="129" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" style="129" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="129" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="129" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="129" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="129" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="129" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="129" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="129" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="129" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="129" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" style="129" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="129" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" style="164" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="7.26953125" style="129"/>
+    <col min="12" max="12" width="15.33203125" style="164" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.33203125" style="129"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="130" t="s">
         <v>15</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="133" t="s">
         <v>16</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="136" t="s">
         <v>17</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="136" t="s">
         <v>20</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="130" t="s">
         <v>21</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="130" t="s">
         <v>24</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="130" t="s">
         <v>25</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="130" t="s">
         <v>27</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="137" t="s">
         <v>28</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="130" t="s">
         <v>15</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="133" t="s">
         <v>16</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="136" t="s">
         <v>17</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="136" t="s">
         <v>20</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="130" t="s">
         <v>21</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="130" t="s">
         <v>24</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="130" t="s">
         <v>25</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="130" t="s">
         <v>27</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="130" t="s">
         <v>28</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="130" t="s">
         <v>15</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="130" t="s">
         <v>16</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="130" t="s">
         <v>17</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="130" t="s">
         <v>20</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="130" t="s">
         <v>21</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="130" t="s">
         <v>24</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="130" t="s">
         <v>25</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="130" t="s">
         <v>27</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="130" t="s">
         <v>28</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="139" t="s">
         <v>56</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="130" t="s">
         <v>15</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="130" t="s">
         <v>16</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="130" t="s">
         <v>17</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="130" t="s">
         <v>20</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="130" t="s">
         <v>21</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="130" t="s">
         <v>24</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="130" t="s">
         <v>25</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="130" t="s">
         <v>27</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="130" t="s">
         <v>28</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="139" t="s">
         <v>56</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="140" t="s">
         <v>15</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="140" t="s">
         <v>16</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="140" t="s">
         <v>17</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="140" t="s">
         <v>20</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="140" t="s">
         <v>21</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="140" t="s">
         <v>24</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="140" t="s">
         <v>25</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="140" t="s">
         <v>27</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="140" t="s">
         <v>28</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="130" t="s">
         <v>26</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="136" t="s">
         <v>19</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="136" t="s">
         <v>30</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="130" t="s">
         <v>31</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="130" t="s">
         <v>32</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="130" t="s">
         <v>33</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="130" t="s">
         <v>34</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="139" t="s">
         <v>35</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="139" t="s">
         <v>36</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="139" t="s">
         <v>37</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="142" t="s">
         <v>38</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="139" t="s">
         <v>39</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="139" t="s">
         <v>40</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="136" t="s">
         <v>41</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="143" t="s">
         <v>23</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="145" t="s">
         <v>44</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="143" t="s">
         <v>45</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="143" t="s">
         <v>46</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="146" t="s">
         <v>47</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="146" t="s">
         <v>48</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="136" t="s">
         <v>49</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="136" t="s">
         <v>50</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="130" t="s">
         <v>26</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="136" t="s">
         <v>19</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="136" t="s">
         <v>30</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="130" t="s">
         <v>31</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="130" t="s">
         <v>32</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="130" t="s">
         <v>33</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="130" t="s">
         <v>34</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="139" t="s">
         <v>35</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="139" t="s">
         <v>36</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="139" t="s">
         <v>37</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="139" t="s">
         <v>38</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="139" t="s">
         <v>39</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="139" t="s">
         <v>40</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="136" t="s">
         <v>41</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="143" t="s">
         <v>23</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="143" t="s">
         <v>44</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="143" t="s">
         <v>45</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="143" t="s">
         <v>46</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="136" t="s">
         <v>26</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="136" t="s">
         <v>19</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="136" t="s">
         <v>30</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="130" t="s">
         <v>31</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="130" t="s">
         <v>32</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="130" t="s">
         <v>33</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="130" t="s">
         <v>34</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="139" t="s">
         <v>35</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="139" t="s">
         <v>36</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="139" t="s">
         <v>37</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="139" t="s">
         <v>38</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="139" t="s">
         <v>39</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="139" t="s">
         <v>40</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="136" t="s">
         <v>41</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="143" t="s">
         <v>23</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="143" t="s">
         <v>44</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="143" t="s">
         <v>45</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="143" t="s">
         <v>46</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="136" t="s">
         <v>26</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="136" t="s">
         <v>19</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="136" t="s">
         <v>30</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="130" t="s">
         <v>31</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="130" t="s">
         <v>32</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="130" t="s">
         <v>33</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="130" t="s">
         <v>34</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="139" t="s">
         <v>35</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="139" t="s">
         <v>36</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="139" t="s">
         <v>37</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="139" t="s">
         <v>38</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="139" t="s">
         <v>39</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="139" t="s">
         <v>40</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="136" t="s">
         <v>41</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="143" t="s">
         <v>23</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="143" t="s">
         <v>44</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="143" t="s">
         <v>45</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" s="150" t="s">
         <v>26</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" s="150" t="s">
         <v>19</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" s="150" t="s">
         <v>30</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" s="140" t="s">
         <v>31</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" s="140" t="s">
         <v>32</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="140" t="s">
         <v>33</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="140" t="s">
         <v>34</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="151" t="s">
         <v>35</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="151" t="s">
         <v>36</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="151" t="s">
         <v>37</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="151" t="s">
         <v>38</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="151" t="s">
         <v>39</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" s="151" t="s">
         <v>40</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" s="152" t="s">
         <v>44</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="152" t="s">
         <v>45</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" s="152" t="s">
         <v>23</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="143" t="s">
         <v>53</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="143" t="s">
         <v>54</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="143" t="s">
         <v>55</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="143" t="s">
         <v>53</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="143" t="s">
         <v>54</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="143" t="s">
         <v>55</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="143" t="s">
         <v>53</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="143" t="s">
         <v>54</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="143" t="s">
         <v>109</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="143" t="s">
         <v>55</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="143" t="s">
         <v>112</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="143" t="s">
         <v>53</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="143" t="s">
         <v>54</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="143" t="s">
         <v>109</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="143" t="s">
         <v>55</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="143" t="s">
         <v>112</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="143" t="s">
         <v>53</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="152" t="s">
         <v>54</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="152" t="s">
         <v>109</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="152" t="s">
         <v>55</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="152" t="s">
         <v>112</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="157" t="s">
         <v>12</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="157" t="s">
         <v>12</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="157" t="s">
         <v>12</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="157" t="s">
         <v>12</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="160" t="s">
         <v>12</v>
       </c>
@@ -7667,19 +7667,19 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="127.81640625" style="125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="127.83203125" style="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7753,23 +7753,23 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" customWidth="1"/>
-    <col min="15" max="30" width="10.08984375" customWidth="1"/>
-    <col min="32" max="32" width="48.81640625" customWidth="1"/>
-    <col min="34" max="36" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="30" width="10.1640625" customWidth="1"/>
+    <col min="32" max="32" width="48.83203125" customWidth="1"/>
+    <col min="34" max="36" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -7836,7 +7836,7 @@
       <c r="AT1" s="22"/>
       <c r="AU1" s="22"/>
     </row>
-    <row r="2" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -7947,7 +7947,7 @@
       <c r="AT2" s="37"/>
       <c r="AU2" s="37"/>
     </row>
-    <row r="3" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
       <c r="B3" s="39" t="s">
         <v>148</v>
@@ -8034,7 +8034,7 @@
       <c r="AT3" s="41"/>
       <c r="AU3" s="41"/>
     </row>
-    <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48" t="s">
         <v>12</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="AT4" s="22"/>
       <c r="AU4" s="22"/>
     </row>
-    <row r="5" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13"/>
@@ -8166,7 +8166,7 @@
       <c r="AT5" s="22"/>
       <c r="AU5" s="22"/>
     </row>
-    <row r="6" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
         <v>165</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="AT6" s="22"/>
       <c r="AU6" s="22"/>
     </row>
-    <row r="7" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="65" t="s">
         <v>15</v>
       </c>
@@ -8330,7 +8330,7 @@
       <c r="AT7" s="22"/>
       <c r="AU7" s="22"/>
     </row>
-    <row r="8" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="65" t="s">
         <v>16</v>
       </c>
@@ -8424,7 +8424,7 @@
       <c r="AT8" s="84"/>
       <c r="AU8" s="84"/>
     </row>
-    <row r="9" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="65" t="s">
         <v>17</v>
       </c>
@@ -8537,7 +8537,7 @@
       <c r="AT9" s="22"/>
       <c r="AU9" s="22"/>
     </row>
-    <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="65" t="s">
         <v>20</v>
       </c>
@@ -8629,7 +8629,7 @@
       <c r="AT10" s="22"/>
       <c r="AU10" s="22"/>
     </row>
-    <row r="11" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="65" t="s">
         <v>21</v>
       </c>
@@ -8741,7 +8741,7 @@
       <c r="AT11" s="86"/>
       <c r="AU11" s="86"/>
     </row>
-    <row r="12" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="65" t="s">
         <v>24</v>
       </c>
@@ -8833,7 +8833,7 @@
       <c r="AT12" s="22"/>
       <c r="AU12" s="22"/>
     </row>
-    <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="65" t="s">
         <v>25</v>
       </c>
@@ -8929,7 +8929,7 @@
       <c r="AT13" s="22"/>
       <c r="AU13" s="22"/>
     </row>
-    <row r="14" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="65" t="s">
         <v>27</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="AT14" s="22"/>
       <c r="AU14" s="22"/>
     </row>
-    <row r="15" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="65" t="s">
         <v>28</v>
       </c>
@@ -9115,7 +9115,7 @@
       <c r="AT15" s="86"/>
       <c r="AU15" s="86"/>
     </row>
-    <row r="16" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="87" t="s">
         <v>56</v>
       </c>
@@ -9201,7 +9201,7 @@
       <c r="AT16" s="22"/>
       <c r="AU16" s="22"/>
     </row>
-    <row r="17" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="88"/>
       <c r="B17" s="10"/>
       <c r="C17" s="13"/>
@@ -9253,7 +9253,7 @@
       <c r="AT17" s="22"/>
       <c r="AU17" s="22"/>
     </row>
-    <row r="18" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
         <v>169</v>
       </c>
@@ -9311,7 +9311,7 @@
       <c r="AT18" s="22"/>
       <c r="AU18" s="22"/>
     </row>
-    <row r="19" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="89"/>
       <c r="B19" s="10"/>
       <c r="C19" s="13"/>
@@ -9363,7 +9363,7 @@
       <c r="AT19" s="22"/>
       <c r="AU19" s="22"/>
     </row>
-    <row r="20" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="90" t="s">
         <v>26</v>
       </c>
@@ -9457,7 +9457,7 @@
       <c r="AT20" s="86"/>
       <c r="AU20" s="86"/>
     </row>
-    <row r="21" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="90" t="s">
         <v>19</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="AT21" s="22"/>
       <c r="AU21" s="22"/>
     </row>
-    <row r="22" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="90" t="s">
         <v>30</v>
       </c>
@@ -9686,7 +9686,7 @@
       <c r="AT22" s="86"/>
       <c r="AU22" s="86"/>
     </row>
-    <row r="23" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="90" t="s">
         <v>83</v>
       </c>
@@ -9782,7 +9782,7 @@
       <c r="AT23" s="86"/>
       <c r="AU23" s="86"/>
     </row>
-    <row r="24" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="65" t="s">
         <v>31</v>
       </c>
@@ -9873,7 +9873,7 @@
       <c r="AT24" s="22"/>
       <c r="AU24" s="22"/>
     </row>
-    <row r="25" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="65" t="s">
         <v>32</v>
       </c>
@@ -9989,7 +9989,7 @@
       <c r="AT25" s="22"/>
       <c r="AU25" s="22"/>
     </row>
-    <row r="26" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="65" t="s">
         <v>33</v>
       </c>
@@ -10099,7 +10099,7 @@
       <c r="AT26" s="86"/>
       <c r="AU26" s="86"/>
     </row>
-    <row r="27" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="65" t="s">
         <v>34</v>
       </c>
@@ -10191,7 +10191,7 @@
       <c r="AT27" s="22"/>
       <c r="AU27" s="22"/>
     </row>
-    <row r="28" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="87" t="s">
         <v>35</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="AT28" s="86"/>
       <c r="AU28" s="86"/>
     </row>
-    <row r="29" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="87" t="s">
         <v>36</v>
       </c>
@@ -10400,7 +10400,7 @@
       <c r="AT29" s="22"/>
       <c r="AU29" s="22"/>
     </row>
-    <row r="30" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="87" t="s">
         <v>37</v>
       </c>
@@ -10515,7 +10515,7 @@
       <c r="AT30" s="86"/>
       <c r="AU30" s="86"/>
     </row>
-    <row r="31" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="87" t="s">
         <v>38</v>
       </c>
@@ -10612,7 +10612,7 @@
       <c r="AT31" s="22"/>
       <c r="AU31" s="22"/>
     </row>
-    <row r="32" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="87" t="s">
         <v>39</v>
       </c>
@@ -10704,7 +10704,7 @@
       <c r="AT32" s="22"/>
       <c r="AU32" s="22"/>
     </row>
-    <row r="33" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="87" t="s">
         <v>40</v>
       </c>
@@ -10796,7 +10796,7 @@
       <c r="AT33" s="22"/>
       <c r="AU33" s="22"/>
     </row>
-    <row r="34" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="100" t="s">
         <v>41</v>
       </c>
@@ -10879,7 +10879,7 @@
       <c r="AT34" s="22"/>
       <c r="AU34" s="22"/>
     </row>
-    <row r="35" spans="1:47" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" ht="98" x14ac:dyDescent="0.15">
       <c r="A35" s="103" t="s">
         <v>23</v>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="AT35" s="84"/>
       <c r="AU35" s="84"/>
     </row>
-    <row r="36" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="103" t="s">
         <v>44</v>
       </c>
@@ -11081,7 +11081,7 @@
       <c r="AT36" s="84"/>
       <c r="AU36" s="84"/>
     </row>
-    <row r="37" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="103" t="s">
         <v>45</v>
       </c>
@@ -11169,7 +11169,7 @@
       <c r="AT37" s="84"/>
       <c r="AU37" s="84"/>
     </row>
-    <row r="38" spans="1:47" ht="13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="116"/>
       <c r="B38" s="15"/>
       <c r="C38" s="13"/>
@@ -11218,7 +11218,7 @@
       <c r="AT38" s="22"/>
       <c r="AU38" s="22"/>
     </row>
-    <row r="39" spans="1:47" ht="13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="116" t="s">
         <v>51</v>
       </c>
@@ -11278,7 +11278,7 @@
       <c r="AT39" s="22"/>
       <c r="AU39" s="22"/>
     </row>
-    <row r="40" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="13"/>
@@ -11327,7 +11327,7 @@
       <c r="AT40" s="22"/>
       <c r="AU40" s="22"/>
     </row>
-    <row r="41" spans="1:47" ht="13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="34" t="s">
         <v>52</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="AT41" s="84"/>
       <c r="AU41" s="84"/>
     </row>
-    <row r="42" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="103" t="s">
         <v>171</v>
       </c>
@@ -11450,7 +11450,7 @@
       <c r="AT42" s="84"/>
       <c r="AU42" s="84"/>
     </row>
-    <row r="43" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" ht="28" x14ac:dyDescent="0.15">
       <c r="A43" s="103" t="s">
         <v>54</v>
       </c>
@@ -11526,7 +11526,7 @@
       <c r="AT43" s="84"/>
       <c r="AU43" s="84"/>
     </row>
-    <row r="44" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="103" t="s">
         <v>109</v>
       </c>
@@ -11600,7 +11600,7 @@
       <c r="AT44" s="84"/>
       <c r="AU44" s="84"/>
     </row>
-    <row r="45" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="28" x14ac:dyDescent="0.15">
       <c r="A45" s="103" t="s">
         <v>55</v>
       </c>
@@ -11674,7 +11674,7 @@
       <c r="AT45" s="84"/>
       <c r="AU45" s="84"/>
     </row>
-    <row r="46" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="103" t="s">
         <v>112</v>
       </c>
@@ -11748,7 +11748,7 @@
       <c r="AT46" s="84"/>
       <c r="AU46" s="84"/>
     </row>
-    <row r="47" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="83"/>
       <c r="C47" s="117"/>
@@ -11797,7 +11797,7 @@
       <c r="AT47" s="84"/>
       <c r="AU47" s="84"/>
     </row>
-    <row r="48" spans="1:47" ht="13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="34"/>
       <c r="B48" s="83"/>
       <c r="C48" s="117"/>
@@ -11846,7 +11846,7 @@
       <c r="AT48" s="84"/>
       <c r="AU48" s="84"/>
     </row>
-    <row r="49" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="121"/>
@@ -11895,7 +11895,7 @@
       <c r="AT49" s="21"/>
       <c r="AU49" s="21"/>
     </row>
-    <row r="50" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="121"/>
@@ -11944,7 +11944,7 @@
       <c r="AT50" s="21"/>
       <c r="AU50" s="21"/>
     </row>
-    <row r="51" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="121"/>
@@ -11993,7 +11993,7 @@
       <c r="AT51" s="21"/>
       <c r="AU51" s="21"/>
     </row>
-    <row r="52" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="122"/>
       <c r="B52" s="83"/>
       <c r="C52" s="117"/>
@@ -12042,7 +12042,7 @@
       <c r="AT52" s="84"/>
       <c r="AU52" s="84"/>
     </row>
-    <row r="53" spans="1:47" ht="13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="27" t="s">
         <v>172</v>
       </c>
@@ -12093,7 +12093,7 @@
       <c r="AT53" s="117"/>
       <c r="AU53" s="117"/>
     </row>
-    <row r="54" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="123" t="s">
         <v>173</v>
       </c>
@@ -12153,7 +12153,7 @@
       <c r="AT54" s="117"/>
       <c r="AU54" s="117"/>
     </row>
-    <row r="55" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="123" t="s">
         <v>174</v>
       </c>
@@ -12210,7 +12210,7 @@
       <c r="AT55" s="117"/>
       <c r="AU55" s="117"/>
     </row>
-    <row r="56" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="123" t="s">
         <v>175</v>
       </c>
@@ -12267,7 +12267,7 @@
       <c r="AT56" s="117"/>
       <c r="AU56" s="117"/>
     </row>
-    <row r="57" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="124" t="s">
         <v>176</v>
       </c>
@@ -12324,7 +12324,7 @@
       <c r="AT57" s="117"/>
       <c r="AU57" s="117"/>
     </row>
-    <row r="58" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="123" t="s">
         <v>177</v>
       </c>
@@ -12381,7 +12381,7 @@
       <c r="AT58" s="117"/>
       <c r="AU58" s="117"/>
     </row>
-    <row r="59" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="123" t="s">
         <v>178</v>
       </c>
@@ -12438,7 +12438,7 @@
       <c r="AT59" s="117"/>
       <c r="AU59" s="117"/>
     </row>
-    <row r="60" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="123" t="s">
         <v>179</v>
       </c>
@@ -12495,7 +12495,7 @@
       <c r="AT60" s="117"/>
       <c r="AU60" s="117"/>
     </row>
-    <row r="61" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="123" t="s">
         <v>180</v>
       </c>
@@ -12552,7 +12552,7 @@
       <c r="AT61" s="117"/>
       <c r="AU61" s="117"/>
     </row>
-    <row r="62" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="123" t="s">
         <v>181</v>
       </c>
@@ -12609,7 +12609,7 @@
       <c r="AT62" s="117"/>
       <c r="AU62" s="117"/>
     </row>
-    <row r="63" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="123" t="s">
         <v>182</v>
       </c>
@@ -12666,7 +12666,7 @@
       <c r="AT63" s="117"/>
       <c r="AU63" s="117"/>
     </row>
-    <row r="64" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="123" t="s">
         <v>183</v>
       </c>
@@ -12723,7 +12723,7 @@
       <c r="AT64" s="117"/>
       <c r="AU64" s="117"/>
     </row>
-    <row r="65" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="123" t="s">
         <v>184</v>
       </c>
@@ -12780,7 +12780,7 @@
       <c r="AT65" s="117"/>
       <c r="AU65" s="117"/>
     </row>
-    <row r="66" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="124" t="s">
         <v>185</v>
       </c>
@@ -12837,7 +12837,7 @@
       <c r="AT66" s="117"/>
       <c r="AU66" s="117"/>
     </row>
-    <row r="67" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="124" t="s">
         <v>186</v>
       </c>
@@ -12894,7 +12894,7 @@
       <c r="AT67" s="13"/>
       <c r="AU67" s="13"/>
     </row>
-    <row r="68" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="123" t="s">
         <v>187</v>
       </c>
@@ -12951,7 +12951,7 @@
       <c r="AT68" s="117"/>
       <c r="AU68" s="117"/>
     </row>
-    <row r="69" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="123" t="s">
         <v>188</v>
       </c>
@@ -13008,7 +13008,7 @@
       <c r="AT69" s="117"/>
       <c r="AU69" s="117"/>
     </row>
-    <row r="70" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="123" t="s">
         <v>189</v>
       </c>
@@ -13065,7 +13065,7 @@
       <c r="AT70" s="117"/>
       <c r="AU70" s="117"/>
     </row>
-    <row r="71" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="123" t="s">
         <v>190</v>
       </c>
@@ -13122,7 +13122,7 @@
       <c r="AT71" s="117"/>
       <c r="AU71" s="117"/>
     </row>
-    <row r="72" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="123" t="s">
         <v>191</v>
       </c>
@@ -13179,7 +13179,7 @@
       <c r="AT72" s="117"/>
       <c r="AU72" s="117"/>
     </row>
-    <row r="73" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="123" t="s">
         <v>192</v>
       </c>
@@ -13236,7 +13236,7 @@
       <c r="AT73" s="117"/>
       <c r="AU73" s="117"/>
     </row>
-    <row r="74" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="123" t="s">
         <v>193</v>
       </c>
@@ -13293,7 +13293,7 @@
       <c r="AT74" s="117"/>
       <c r="AU74" s="117"/>
     </row>
-    <row r="75" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="123" t="s">
         <v>194</v>
       </c>
@@ -13350,7 +13350,7 @@
       <c r="AT75" s="117"/>
       <c r="AU75" s="117"/>
     </row>
-    <row r="76" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="123" t="s">
         <v>195</v>
       </c>
@@ -13407,7 +13407,7 @@
       <c r="AT76" s="117"/>
       <c r="AU76" s="117"/>
     </row>
-    <row r="77" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="123" t="s">
         <v>196</v>
       </c>
@@ -13464,7 +13464,7 @@
       <c r="AT77" s="117"/>
       <c r="AU77" s="117"/>
     </row>
-    <row r="78" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="123" t="s">
         <v>197</v>
       </c>
@@ -13521,7 +13521,7 @@
       <c r="AT78" s="117"/>
       <c r="AU78" s="117"/>
     </row>
-    <row r="79" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="123" t="s">
         <v>188</v>
       </c>
@@ -13578,7 +13578,7 @@
       <c r="AT79" s="117"/>
       <c r="AU79" s="117"/>
     </row>
-    <row r="80" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="123" t="s">
         <v>193</v>
       </c>
@@ -13635,7 +13635,7 @@
       <c r="AT80" s="117"/>
       <c r="AU80" s="117"/>
     </row>
-    <row r="81" spans="1:47" ht="25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="123" t="s">
         <v>198</v>
       </c>
@@ -13692,7 +13692,7 @@
       <c r="AT81" s="117"/>
       <c r="AU81" s="117"/>
     </row>
-    <row r="82" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="123" t="s">
         <v>194</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="AT82" s="117"/>
       <c r="AU82" s="117"/>
     </row>
-    <row r="83" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="123" t="s">
         <v>199</v>
       </c>
@@ -13806,7 +13806,7 @@
       <c r="AT83" s="117"/>
       <c r="AU83" s="117"/>
     </row>
-    <row r="84" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="123" t="s">
         <v>200</v>
       </c>
@@ -13863,7 +13863,7 @@
       <c r="AT84" s="117"/>
       <c r="AU84" s="117"/>
     </row>
-    <row r="85" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="123" t="s">
         <v>201</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="AT85" s="117"/>
       <c r="AU85" s="117"/>
     </row>
-    <row r="86" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="123" t="s">
         <v>202</v>
       </c>
@@ -13977,7 +13977,7 @@
       <c r="AT86" s="117"/>
       <c r="AU86" s="117"/>
     </row>
-    <row r="87" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="123" t="s">
         <v>203</v>
       </c>
@@ -14034,7 +14034,7 @@
       <c r="AT87" s="117"/>
       <c r="AU87" s="117"/>
     </row>
-    <row r="88" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="123" t="s">
         <v>204</v>
       </c>
@@ -14091,7 +14091,7 @@
       <c r="AT88" s="117"/>
       <c r="AU88" s="117"/>
     </row>
-    <row r="89" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="123" t="s">
         <v>205</v>
       </c>
@@ -14148,7 +14148,7 @@
       <c r="AT89" s="117"/>
       <c r="AU89" s="117"/>
     </row>
-    <row r="90" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="123" t="s">
         <v>206</v>
       </c>
@@ -14205,7 +14205,7 @@
       <c r="AT90" s="117"/>
       <c r="AU90" s="117"/>
     </row>
-    <row r="91" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="123" t="s">
         <v>207</v>
       </c>
@@ -14262,7 +14262,7 @@
       <c r="AT91" s="117"/>
       <c r="AU91" s="117"/>
     </row>
-    <row r="92" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="123" t="s">
         <v>208</v>
       </c>
@@ -14319,7 +14319,7 @@
       <c r="AT92" s="117"/>
       <c r="AU92" s="117"/>
     </row>
-    <row r="93" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="123" t="s">
         <v>209</v>
       </c>
@@ -14376,7 +14376,7 @@
       <c r="AT93" s="117"/>
       <c r="AU93" s="117"/>
     </row>
-    <row r="94" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="123" t="s">
         <v>210</v>
       </c>
@@ -14433,7 +14433,7 @@
       <c r="AT94" s="117"/>
       <c r="AU94" s="117"/>
     </row>
-    <row r="95" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="123" t="s">
         <v>211</v>
       </c>
@@ -14490,7 +14490,7 @@
       <c r="AT95" s="117"/>
       <c r="AU95" s="117"/>
     </row>
-    <row r="96" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="123" t="s">
         <v>212</v>
       </c>
@@ -14547,7 +14547,7 @@
       <c r="AT96" s="117"/>
       <c r="AU96" s="117"/>
     </row>
-    <row r="97" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="123" t="s">
         <v>213</v>
       </c>
@@ -14604,7 +14604,7 @@
       <c r="AT97" s="117"/>
       <c r="AU97" s="117"/>
     </row>
-    <row r="98" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="123" t="s">
         <v>214</v>
       </c>
@@ -14661,7 +14661,7 @@
       <c r="AT98" s="117"/>
       <c r="AU98" s="117"/>
     </row>
-    <row r="99" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="123" t="s">
         <v>215</v>
       </c>
@@ -14718,7 +14718,7 @@
       <c r="AT99" s="117"/>
       <c r="AU99" s="117"/>
     </row>
-    <row r="100" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="123" t="s">
         <v>216</v>
       </c>
@@ -14775,7 +14775,7 @@
       <c r="AT100" s="117"/>
       <c r="AU100" s="117"/>
     </row>
-    <row r="101" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="123" t="s">
         <v>217</v>
       </c>
@@ -14832,7 +14832,7 @@
       <c r="AT101" s="117"/>
       <c r="AU101" s="117"/>
     </row>
-    <row r="102" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="123" t="s">
         <v>218</v>
       </c>
@@ -14889,7 +14889,7 @@
       <c r="AT102" s="117"/>
       <c r="AU102" s="117"/>
     </row>
-    <row r="103" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="123" t="s">
         <v>219</v>
       </c>
@@ -14946,7 +14946,7 @@
       <c r="AT103" s="117"/>
       <c r="AU103" s="117"/>
     </row>
-    <row r="104" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="123" t="s">
         <v>220</v>
       </c>
@@ -15003,7 +15003,7 @@
       <c r="AT104" s="117"/>
       <c r="AU104" s="117"/>
     </row>
-    <row r="105" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="123" t="s">
         <v>221</v>
       </c>
@@ -15060,7 +15060,7 @@
       <c r="AT105" s="117"/>
       <c r="AU105" s="117"/>
     </row>
-    <row r="106" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="123" t="s">
         <v>20</v>
       </c>
@@ -15117,7 +15117,7 @@
       <c r="AT106" s="117"/>
       <c r="AU106" s="117"/>
     </row>
-    <row r="107" spans="1:47" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
